--- a/results/mp/logistic/corona/confidence/126/masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="173">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,130 +43,124 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crash</t>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>lowest</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>low</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>stop</t>
@@ -175,10 +169,7 @@
     <t>fight</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>w</t>
   </si>
   <si>
     <t>shortage</t>
@@ -190,355 +181,355 @@
     <t>oil</t>
   </si>
   <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>due</t>
+    <t>because</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>over</t>
   </si>
   <si>
     <t>or</t>
   </si>
   <si>
-    <t>buying</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>from</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>_</t>
+    <t>on</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>people</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>our</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>can</t>
   </si>
   <si>
     <t>at</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>s</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
+    <t>it</t>
+  </si>
+  <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>'</t>
   </si>
   <si>
     <t>food</t>
@@ -899,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,10 +898,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -968,13 +959,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -986,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -1018,13 +1009,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1036,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1060,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1068,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1086,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>0.9230769230769231</v>
@@ -1139,16 +1130,16 @@
         <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1160,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1168,13 +1159,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8157894736842105</v>
+        <v>0.8125</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1186,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1210,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1218,13 +1209,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1236,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K8">
-        <v>0.8833333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1260,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1268,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8055555555555556</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C9">
         <v>29</v>
@@ -1286,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1310,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1318,13 +1309,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7931034482758621</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1336,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K10">
-        <v>0.8660714285714286</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L10">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1360,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1368,13 +1359,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7837837837837838</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1386,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K11">
-        <v>0.856020942408377</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L11">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1407,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1418,13 +1409,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7391304347826086</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1436,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K12">
-        <v>0.851063829787234</v>
+        <v>0.8359375</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1460,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1468,13 +1459,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7307692307692307</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1486,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K13">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1510,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1518,13 +1509,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1536,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K14">
-        <v>0.84375</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L14">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="M14">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1560,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1568,13 +1559,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6842105263157895</v>
+        <v>0.72</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1586,31 +1577,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L15">
+        <v>27</v>
+      </c>
+      <c r="M15">
+        <v>27</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>6</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="L15">
-        <v>68</v>
-      </c>
-      <c r="M15">
-        <v>68</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1639,16 +1630,16 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K16">
-        <v>0.8275862068965517</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1660,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1668,13 +1659,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.675</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1686,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K17">
-        <v>0.8207547169811321</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L17">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1710,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1718,37 +1709,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6521739130434783</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K18">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1760,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1768,13 +1759,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6470588235294118</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1786,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K19">
-        <v>0.813953488372093</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1818,13 +1809,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.64</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1839,16 +1830,16 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L20">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1860,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1868,13 +1859,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6333333333333333</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1886,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K21">
-        <v>0.8055555555555556</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1910,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1918,13 +1909,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6101694915254238</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1936,19 +1927,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K22">
-        <v>0.795774647887324</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L22">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="M22">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1960,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1968,13 +1959,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5833333333333334</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C23">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1986,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2010,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2018,13 +2009,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5769230769230769</v>
+        <v>0.5717054263565892</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2036,31 +2027,31 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>221</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24">
+        <v>0.7659574468085106</v>
+      </c>
+      <c r="L24">
+        <v>36</v>
+      </c>
+      <c r="M24">
+        <v>36</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>11</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L24">
-        <v>14</v>
-      </c>
-      <c r="M24">
-        <v>14</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2068,13 +2059,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5652173913043478</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2086,31 +2077,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K25">
-        <v>0.7741935483870968</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2118,13 +2109,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5608465608465608</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2136,19 +2127,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K26">
-        <v>0.7368421052631579</v>
+        <v>0.725</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2160,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2189,16 +2180,16 @@
         <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K27">
         <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2210,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2218,13 +2209,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2236,31 +2227,31 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L28">
+        <v>45</v>
+      </c>
+      <c r="M28">
+        <v>45</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>18</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28">
-        <v>0.7</v>
-      </c>
-      <c r="L28">
-        <v>28</v>
-      </c>
-      <c r="M28">
-        <v>28</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2268,13 +2259,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5161290322580645</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2286,19 +2277,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K29">
-        <v>0.6875</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2310,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2318,38 +2309,38 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5135135135135135</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L30">
         <v>19</v>
       </c>
-      <c r="D30">
+      <c r="M30">
         <v>19</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>18</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
       <c r="N30">
         <v>1</v>
       </c>
@@ -2360,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2368,13 +2359,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5128205128205128</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2386,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K31">
-        <v>0.6764705882352942</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2410,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2418,13 +2409,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4899328859060403</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C32">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2436,19 +2427,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K32">
-        <v>0.66</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2460,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2468,13 +2459,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4814814814814815</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2486,19 +2477,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K33">
-        <v>0.6571428571428571</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2510,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2518,13 +2509,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4814814814814815</v>
+        <v>0.475</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2536,31 +2527,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K34">
-        <v>0.6428571428571429</v>
+        <v>0.64</v>
       </c>
       <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>18</v>
-      </c>
-      <c r="M34">
-        <v>18</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2568,13 +2559,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4555555555555555</v>
+        <v>0.44</v>
       </c>
       <c r="C35">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2586,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K35">
         <v>0.6363636363636364</v>
@@ -2618,13 +2609,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4444444444444444</v>
+        <v>0.4375</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2636,31 +2627,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K36">
-        <v>0.6305084745762712</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="L36">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="M36">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2668,13 +2659,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.44</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2686,19 +2677,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K37">
-        <v>0.625</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2710,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2718,13 +2709,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4363636363636363</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2736,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K38">
         <v>0.625</v>
@@ -2768,13 +2759,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2786,31 +2777,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K39">
-        <v>0.6179775280898876</v>
+        <v>0.6156462585034014</v>
       </c>
       <c r="L39">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="M39">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2818,13 +2809,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4193548387096774</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2836,31 +2827,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K40">
-        <v>0.6176470588235294</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L40">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="N40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2868,13 +2859,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4193548387096774</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2886,19 +2877,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K41">
-        <v>0.6170212765957447</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L41">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2910,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2918,13 +2909,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.40625</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2936,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K42">
-        <v>0.6153846153846154</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2960,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2968,13 +2959,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2986,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K43">
-        <v>0.6086956521739131</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3010,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3018,13 +3009,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3666666666666666</v>
+        <v>0.2896825396825397</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D44">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3036,19 +3027,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K44">
-        <v>0.6086956521739131</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3060,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3068,13 +3059,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.325</v>
+        <v>0.2875</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3086,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K45">
-        <v>0.5833333333333334</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3110,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3118,13 +3109,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3174603174603174</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C46">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3136,19 +3127,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K46">
-        <v>0.5769230769230769</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3160,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3168,13 +3159,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3125</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3186,19 +3177,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K47">
-        <v>0.5757575757575758</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3210,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3218,13 +3209,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2941176470588235</v>
+        <v>0.2117962466487936</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3236,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K48">
-        <v>0.5714285714285714</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3260,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3268,13 +3259,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2857142857142857</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3286,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K49">
-        <v>0.5571428571428572</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3310,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3318,37 +3309,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2542372881355932</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C50">
         <v>15</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K50">
-        <v>0.5357142857142857</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3368,13 +3359,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2332439678284182</v>
+        <v>0.07849829351535836</v>
       </c>
       <c r="C51">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D51">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3386,19 +3377,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K51">
-        <v>0.5294117647058824</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3410,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3418,13 +3409,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1666666666666667</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3436,31 +3427,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K52">
-        <v>0.5121951219512195</v>
+        <v>0.5</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3468,13 +3459,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08724832214765101</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3486,31 +3477,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>136</v>
+        <v>348</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K53">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L53">
+        <v>22</v>
+      </c>
+      <c r="M53">
+        <v>22</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>23</v>
-      </c>
-      <c r="M53">
-        <v>23</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3518,49 +3509,49 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.06382978723404255</v>
+        <v>0.04047927461139896</v>
       </c>
       <c r="C54">
+        <v>125</v>
+      </c>
+      <c r="D54">
+        <v>144</v>
+      </c>
+      <c r="E54">
+        <v>0.13</v>
+      </c>
+      <c r="F54">
+        <v>0.87</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2963</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K54">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="L54">
         <v>15</v>
       </c>
-      <c r="D54">
+      <c r="M54">
+        <v>15</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>16</v>
-      </c>
-      <c r="E54">
-        <v>0.06</v>
-      </c>
-      <c r="F54">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>220</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K54">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="L54">
-        <v>13</v>
-      </c>
-      <c r="M54">
-        <v>13</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3568,49 +3559,49 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.05978260869565218</v>
+        <v>0.03457216940363008</v>
       </c>
       <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>44</v>
+      </c>
+      <c r="E55">
+        <v>0.09</v>
+      </c>
+      <c r="F55">
+        <v>0.91</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1117</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
         <v>22</v>
-      </c>
-      <c r="D55">
-        <v>22</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>346</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K55">
-        <v>0.4657534246575342</v>
-      </c>
-      <c r="L55">
-        <v>34</v>
-      </c>
-      <c r="M55">
-        <v>34</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3618,37 +3609,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.05460750853242321</v>
+        <v>0.03309692671394799</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>277</v>
+        <v>409</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K56">
-        <v>0.4230769230769231</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3660,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3668,37 +3659,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03658141793460667</v>
+        <v>0.03110599078341014</v>
       </c>
       <c r="C57">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="D57">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E57">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="F57">
-        <v>0.86</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>2976</v>
+        <v>841</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K57">
-        <v>0.3859649122807017</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3710,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3718,31 +3709,31 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03642671292281006</v>
+        <v>0.02903225806451613</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E58">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="F58">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1111</v>
+        <v>602</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K58">
-        <v>0.3770491803278688</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="L58">
         <v>23</v>
@@ -3760,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3768,37 +3759,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.03236245954692556</v>
+        <v>0.02548853016142736</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D59">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="E59">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F59">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>598</v>
+        <v>2294</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K59">
-        <v>0.3728813559322034</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3810,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3818,37 +3809,37 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.03164855928200284</v>
+        <v>0.02432045779685265</v>
       </c>
       <c r="C60">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="F60">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>2050</v>
+        <v>682</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K60">
-        <v>0.328125</v>
+        <v>0.375</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3860,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3868,49 +3859,49 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03155339805825243</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E61">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="F61">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>399</v>
+        <v>2070</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K61">
-        <v>0.2380952380952381</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L61">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N61">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3918,37 +3909,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.03129445234708392</v>
+        <v>0.01950354609929078</v>
       </c>
       <c r="C62">
         <v>22</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E62">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="F62">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>681</v>
+        <v>1106</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K62">
-        <v>0.2222222222222222</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3960,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3968,49 +3959,49 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02896081771720613</v>
+        <v>0.01862630966239814</v>
       </c>
       <c r="C63">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="E63">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="F63">
-        <v>0.6899999999999999</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>2280</v>
+        <v>843</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K63">
-        <v>0.217741935483871</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="L63">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4018,49 +4009,49 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02674897119341564</v>
+        <v>0.01755424063116371</v>
       </c>
       <c r="C64">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="E64">
-        <v>0.19</v>
+        <v>0.52</v>
       </c>
       <c r="F64">
-        <v>0.8100000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>473</v>
+        <v>4981</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K64">
-        <v>0.1458333333333333</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L64">
         <v>14</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N64">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4068,49 +4059,49 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02555168408826946</v>
+        <v>0.01580333625987709</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D65">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E65">
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="F65">
-        <v>0.79</v>
+        <v>0.54</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>839</v>
+        <v>2242</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="K65">
-        <v>0.1267605633802817</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L65">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4118,37 +4109,37 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02407407407407407</v>
+        <v>0.01550071384866408</v>
       </c>
       <c r="C66">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D66">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="E66">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="F66">
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>527</v>
+        <v>4827</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K66">
-        <v>0.1135135135135135</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L66">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -4160,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>164</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4168,49 +4159,49 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02197802197802198</v>
+        <v>0.01483679525222552</v>
       </c>
       <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>35</v>
+      </c>
+      <c r="E67">
+        <v>0.43</v>
+      </c>
+      <c r="F67">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1328</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K67">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L67">
+        <v>13</v>
+      </c>
+      <c r="M67">
         <v>14</v>
       </c>
-      <c r="D67">
-        <v>27</v>
-      </c>
-      <c r="E67">
-        <v>0.48</v>
-      </c>
-      <c r="F67">
-        <v>0.52</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>623</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K67">
-        <v>0.09446254071661238</v>
-      </c>
-      <c r="L67">
-        <v>29</v>
-      </c>
-      <c r="M67">
-        <v>30</v>
-      </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>278</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4218,49 +4209,49 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.02080924855491329</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C68">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D68">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="E68">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="F68">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>847</v>
+        <v>4189</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="K68">
-        <v>0.09259259259259259</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4268,37 +4259,37 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.01987281399046105</v>
+        <v>0.01343973120537589</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D69">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E69">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
       <c r="F69">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1233</v>
+        <v>2349</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K69">
-        <v>0.08139534883720931</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -4310,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>158</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4318,49 +4309,49 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.01946902654867257</v>
+        <v>0.01286549707602339</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="E70">
-        <v>0.31</v>
+        <v>0.77</v>
       </c>
       <c r="F70">
-        <v>0.6899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1108</v>
+        <v>2532</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K70">
-        <v>0.07380073800738007</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="L70">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N70">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O70">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>502</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4368,49 +4359,49 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.01755926251097454</v>
+        <v>0.01188946015424164</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D71">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E71">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="F71">
-        <v>0.5600000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>2238</v>
+        <v>3075</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K71">
-        <v>0.0728643216080402</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="L71">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="M71">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4418,49 +4409,49 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.01726427622841965</v>
+        <v>0.01119104716227018</v>
       </c>
       <c r="C72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E72">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="F72">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>740</v>
+        <v>1237</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K72">
-        <v>0.07163323782234957</v>
+        <v>0.1125</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>324</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4468,49 +4459,49 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.01682396389002873</v>
+        <v>0.01084905660377358</v>
       </c>
       <c r="C73">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="E73">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F73">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>4792</v>
+        <v>2097</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K73">
-        <v>0.07004830917874397</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="L73">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N73">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>385</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4518,49 +4509,49 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0162037037037037</v>
+        <v>0.009658725048293626</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E74">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="F74">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>850</v>
+        <v>1538</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K74">
-        <v>0.06987951807228916</v>
+        <v>0.09879518072289156</v>
       </c>
       <c r="L74">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M74">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4568,695 +4559,479 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.01557263946382811</v>
+        <v>0.006018916595012897</v>
       </c>
       <c r="C75">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D75">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="E75">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="F75">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>4994</v>
+        <v>2312</v>
       </c>
       <c r="J75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L75">
+        <v>28</v>
+      </c>
+      <c r="M75">
+        <v>28</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="J76" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K76">
+        <v>0.07780979827089338</v>
+      </c>
+      <c r="L76">
+        <v>27</v>
+      </c>
+      <c r="M76">
+        <v>29</v>
+      </c>
+      <c r="N76">
+        <v>0.93</v>
+      </c>
+      <c r="O76">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="J77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K77">
+        <v>0.07466442953020135</v>
+      </c>
+      <c r="L77">
+        <v>89</v>
+      </c>
+      <c r="M77">
+        <v>97</v>
+      </c>
+      <c r="N77">
+        <v>0.92</v>
+      </c>
+      <c r="O77">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="J78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K78">
+        <v>0.06813996316758748</v>
+      </c>
+      <c r="L78">
+        <v>37</v>
+      </c>
+      <c r="M78">
+        <v>41</v>
+      </c>
+      <c r="N78">
+        <v>0.9</v>
+      </c>
+      <c r="O78">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="J79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K79">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L79">
+        <v>17</v>
+      </c>
+      <c r="M79">
+        <v>17</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="J80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K80">
+        <v>0.04629629629629629</v>
+      </c>
+      <c r="L80">
+        <v>15</v>
+      </c>
+      <c r="M80">
+        <v>18</v>
+      </c>
+      <c r="N80">
+        <v>0.83</v>
+      </c>
+      <c r="O80">
+        <v>0.17</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K81">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="L81">
+        <v>40</v>
+      </c>
+      <c r="M81">
+        <v>41</v>
+      </c>
+      <c r="N81">
+        <v>0.98</v>
+      </c>
+      <c r="O81">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K82">
+        <v>0.04381846635367762</v>
+      </c>
+      <c r="L82">
+        <v>28</v>
+      </c>
+      <c r="M82">
+        <v>39</v>
+      </c>
+      <c r="N82">
+        <v>0.72</v>
+      </c>
+      <c r="O82">
+        <v>0.28</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K83">
+        <v>0.04326923076923077</v>
+      </c>
+      <c r="L83">
+        <v>18</v>
+      </c>
+      <c r="M83">
+        <v>20</v>
+      </c>
+      <c r="N83">
+        <v>0.9</v>
+      </c>
+      <c r="O83">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K75">
-        <v>0.06574394463667819</v>
-      </c>
-      <c r="L75">
+      <c r="K84">
+        <v>0.0427263479145473</v>
+      </c>
+      <c r="L84">
+        <v>42</v>
+      </c>
+      <c r="M84">
+        <v>48</v>
+      </c>
+      <c r="N84">
+        <v>0.88</v>
+      </c>
+      <c r="O84">
+        <v>0.12</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K85">
+        <v>0.04251386321626617</v>
+      </c>
+      <c r="L85">
+        <v>23</v>
+      </c>
+      <c r="M85">
+        <v>26</v>
+      </c>
+      <c r="N85">
+        <v>0.88</v>
+      </c>
+      <c r="O85">
+        <v>0.12</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K86">
+        <v>0.04090909090909091</v>
+      </c>
+      <c r="L86">
+        <v>108</v>
+      </c>
+      <c r="M86">
+        <v>141</v>
+      </c>
+      <c r="N86">
+        <v>0.77</v>
+      </c>
+      <c r="O86">
+        <v>0.23</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K87">
+        <v>0.03177257525083612</v>
+      </c>
+      <c r="L87">
         <v>19</v>
       </c>
-      <c r="M75">
-        <v>19</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.01511969760604788</v>
-      </c>
-      <c r="C76">
-        <v>36</v>
-      </c>
-      <c r="D76">
-        <v>100</v>
-      </c>
-      <c r="E76">
-        <v>0.64</v>
-      </c>
-      <c r="F76">
-        <v>0.36</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>2345</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K76">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="L76">
-        <v>14</v>
-      </c>
-      <c r="M76">
-        <v>19</v>
-      </c>
-      <c r="N76">
-        <v>0.74</v>
-      </c>
-      <c r="O76">
-        <v>0.26</v>
-      </c>
-      <c r="P76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="1" t="s">
+      <c r="M87">
+        <v>26</v>
+      </c>
+      <c r="N87">
+        <v>0.73</v>
+      </c>
+      <c r="O87">
+        <v>0.27</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K88">
+        <v>0.03112033195020747</v>
+      </c>
+      <c r="L88">
+        <v>15</v>
+      </c>
+      <c r="M88">
+        <v>18</v>
+      </c>
+      <c r="N88">
+        <v>0.83</v>
+      </c>
+      <c r="O88">
+        <v>0.17</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K89">
+        <v>0.02980392156862745</v>
+      </c>
+      <c r="L89">
+        <v>38</v>
+      </c>
+      <c r="M89">
+        <v>52</v>
+      </c>
+      <c r="N89">
+        <v>0.73</v>
+      </c>
+      <c r="O89">
+        <v>0.27</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K90">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="L90">
+        <v>68</v>
+      </c>
+      <c r="M90">
         <v>82</v>
       </c>
-      <c r="B77">
-        <v>0.0148578811369509</v>
-      </c>
-      <c r="C77">
-        <v>23</v>
-      </c>
-      <c r="D77">
-        <v>69</v>
-      </c>
-      <c r="E77">
-        <v>0.67</v>
-      </c>
-      <c r="F77">
-        <v>0.33</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1525</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K77">
-        <v>0.03744326777609682</v>
-      </c>
-      <c r="L77">
-        <v>99</v>
-      </c>
-      <c r="M77">
-        <v>128</v>
-      </c>
-      <c r="N77">
-        <v>0.77</v>
-      </c>
-      <c r="O77">
-        <v>0.23</v>
-      </c>
-      <c r="P77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.01480384900074019</v>
-      </c>
-      <c r="C78">
-        <v>20</v>
-      </c>
-      <c r="D78">
-        <v>32</v>
-      </c>
-      <c r="E78">
-        <v>0.38</v>
-      </c>
-      <c r="F78">
-        <v>0.62</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>1331</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K78">
-        <v>0.03672787979966611</v>
-      </c>
-      <c r="L78">
-        <v>22</v>
-      </c>
-      <c r="M78">
-        <v>28</v>
-      </c>
-      <c r="N78">
-        <v>0.79</v>
-      </c>
-      <c r="O78">
-        <v>0.21</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.01457399103139013</v>
-      </c>
-      <c r="C79">
-        <v>13</v>
-      </c>
-      <c r="D79">
-        <v>26</v>
-      </c>
-      <c r="E79">
-        <v>0.5</v>
-      </c>
-      <c r="F79">
-        <v>0.5</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>879</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K79">
-        <v>0.03462321792260693</v>
-      </c>
-      <c r="L79">
-        <v>34</v>
-      </c>
-      <c r="M79">
-        <v>41</v>
-      </c>
-      <c r="N79">
+      <c r="N90">
         <v>0.83</v>
       </c>
-      <c r="O79">
+      <c r="O90">
         <v>0.17</v>
       </c>
-      <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.0132387706855792</v>
-      </c>
-      <c r="C80">
-        <v>28</v>
-      </c>
-      <c r="D80">
-        <v>71</v>
-      </c>
-      <c r="E80">
-        <v>0.61</v>
-      </c>
-      <c r="F80">
-        <v>0.39</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>2087</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K80">
-        <v>0.03221730890713834</v>
-      </c>
-      <c r="L80">
-        <v>102</v>
-      </c>
-      <c r="M80">
-        <v>137</v>
-      </c>
-      <c r="N80">
-        <v>0.74</v>
-      </c>
-      <c r="O80">
-        <v>0.26</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>0.01249116191374028</v>
-      </c>
-      <c r="C81">
-        <v>53</v>
-      </c>
-      <c r="D81">
-        <v>138</v>
-      </c>
-      <c r="E81">
-        <v>0.62</v>
-      </c>
-      <c r="F81">
-        <v>0.38</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>4190</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K81">
-        <v>0.03153988868274583</v>
-      </c>
-      <c r="L81">
-        <v>17</v>
-      </c>
-      <c r="M81">
-        <v>22</v>
-      </c>
-      <c r="N81">
-        <v>0.77</v>
-      </c>
-      <c r="O81">
-        <v>0.23</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>0.01129396579541788</v>
-      </c>
-      <c r="C82">
-        <v>35</v>
-      </c>
-      <c r="D82">
-        <v>137</v>
-      </c>
-      <c r="E82">
-        <v>0.74</v>
-      </c>
-      <c r="F82">
-        <v>0.26</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>3064</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K82">
-        <v>0.03144654088050314</v>
-      </c>
-      <c r="L82">
-        <v>15</v>
-      </c>
-      <c r="M82">
-        <v>23</v>
-      </c>
-      <c r="N82">
-        <v>0.65</v>
-      </c>
-      <c r="O82">
-        <v>0.35</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>0.01126651126651127</v>
-      </c>
-      <c r="C83">
-        <v>29</v>
-      </c>
-      <c r="D83">
-        <v>128</v>
-      </c>
-      <c r="E83">
-        <v>0.77</v>
-      </c>
-      <c r="F83">
-        <v>0.23</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>2545</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K83">
-        <v>0.03114571746384872</v>
-      </c>
-      <c r="L83">
-        <v>28</v>
-      </c>
-      <c r="M83">
-        <v>30</v>
-      </c>
-      <c r="N83">
-        <v>0.93</v>
-      </c>
-      <c r="O83">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="1" t="s">
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K91">
+        <v>0.02812895069532238</v>
+      </c>
+      <c r="L91">
         <v>89</v>
       </c>
-      <c r="B84">
-        <v>0.007296137339055794</v>
-      </c>
-      <c r="C84">
-        <v>17</v>
-      </c>
-      <c r="D84">
-        <v>81</v>
-      </c>
-      <c r="E84">
-        <v>0.79</v>
-      </c>
-      <c r="F84">
-        <v>0.21</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>2313</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K84">
-        <v>0.02928071292170592</v>
-      </c>
-      <c r="L84">
-        <v>46</v>
-      </c>
-      <c r="M84">
-        <v>69</v>
-      </c>
-      <c r="N84">
-        <v>0.67</v>
-      </c>
-      <c r="O84">
-        <v>0.33</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="J85" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K85">
-        <v>0.02692469499368953</v>
-      </c>
-      <c r="L85">
+      <c r="M91">
+        <v>126</v>
+      </c>
+      <c r="N91">
+        <v>0.71</v>
+      </c>
+      <c r="O91">
+        <v>0.29</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K92">
+        <v>0.02652300041442188</v>
+      </c>
+      <c r="L92">
         <v>64</v>
       </c>
-      <c r="M85">
-        <v>81</v>
-      </c>
-      <c r="N85">
-        <v>0.79</v>
-      </c>
-      <c r="O85">
-        <v>0.21</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="J86" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K86">
-        <v>0.0265670402656704</v>
-      </c>
-      <c r="L86">
-        <v>64</v>
-      </c>
-      <c r="M86">
-        <v>100</v>
-      </c>
-      <c r="N86">
-        <v>0.64</v>
-      </c>
-      <c r="O86">
-        <v>0.36</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="J87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K87">
-        <v>0.02606177606177606</v>
-      </c>
-      <c r="L87">
-        <v>27</v>
-      </c>
-      <c r="M87">
-        <v>31</v>
-      </c>
-      <c r="N87">
-        <v>0.87</v>
-      </c>
-      <c r="O87">
-        <v>0.13</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="J88" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K88">
-        <v>0.0259009009009009</v>
-      </c>
-      <c r="L88">
-        <v>23</v>
-      </c>
-      <c r="M88">
-        <v>29</v>
-      </c>
-      <c r="N88">
-        <v>0.79</v>
-      </c>
-      <c r="O88">
-        <v>0.21</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="J89" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K89">
-        <v>0.02482702482702483</v>
-      </c>
-      <c r="L89">
-        <v>122</v>
-      </c>
-      <c r="M89">
-        <v>204</v>
-      </c>
-      <c r="N89">
-        <v>0.6</v>
-      </c>
-      <c r="O89">
-        <v>0.4</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>4792</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="J90" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K90">
-        <v>0.0245253164556962</v>
-      </c>
-      <c r="L90">
-        <v>31</v>
-      </c>
-      <c r="M90">
-        <v>56</v>
-      </c>
-      <c r="N90">
-        <v>0.55</v>
-      </c>
-      <c r="O90">
-        <v>0.45</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="J91" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K91">
-        <v>0.02395964691046658</v>
-      </c>
-      <c r="L91">
-        <v>19</v>
-      </c>
-      <c r="M91">
-        <v>27</v>
-      </c>
-      <c r="N91">
-        <v>0.7</v>
-      </c>
-      <c r="O91">
-        <v>0.3</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="J92" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K92">
-        <v>0.02247191011235955</v>
-      </c>
-      <c r="L92">
-        <v>16</v>
-      </c>
       <c r="M92">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N92">
         <v>0.67</v>
@@ -5268,371 +5043,449 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K93">
-        <v>0.02245706737120211</v>
+        <v>0.025965801139962</v>
       </c>
       <c r="L93">
+        <v>41</v>
+      </c>
+      <c r="M93">
+        <v>56</v>
+      </c>
+      <c r="N93">
+        <v>0.73</v>
+      </c>
+      <c r="O93">
+        <v>0.27</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K94">
+        <v>0.02419354838709677</v>
+      </c>
+      <c r="L94">
+        <v>21</v>
+      </c>
+      <c r="M94">
+        <v>31</v>
+      </c>
+      <c r="N94">
+        <v>0.68</v>
+      </c>
+      <c r="O94">
+        <v>0.32</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K95">
+        <v>0.02387640449438202</v>
+      </c>
+      <c r="L95">
         <v>17</v>
       </c>
-      <c r="M93">
+      <c r="M95">
+        <v>25</v>
+      </c>
+      <c r="N95">
+        <v>0.68</v>
+      </c>
+      <c r="O95">
+        <v>0.32</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K96">
+        <v>0.02321083172147002</v>
+      </c>
+      <c r="L96">
+        <v>24</v>
+      </c>
+      <c r="M96">
         <v>30</v>
       </c>
-      <c r="N93">
-        <v>0.57</v>
-      </c>
-      <c r="O93">
-        <v>0.43</v>
-      </c>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="J94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K94">
-        <v>0.02044025157232704</v>
-      </c>
-      <c r="L94">
-        <v>13</v>
-      </c>
-      <c r="M94">
-        <v>27</v>
-      </c>
-      <c r="N94">
-        <v>0.48</v>
-      </c>
-      <c r="O94">
-        <v>0.52</v>
-      </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="J95" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K95">
-        <v>0.02018779342723005</v>
-      </c>
-      <c r="L95">
-        <v>43</v>
-      </c>
-      <c r="M95">
-        <v>71</v>
-      </c>
-      <c r="N95">
-        <v>0.61</v>
-      </c>
-      <c r="O95">
-        <v>0.39</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="J96" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K96">
-        <v>0.01988304093567252</v>
-      </c>
-      <c r="L96">
-        <v>85</v>
-      </c>
-      <c r="M96">
-        <v>138</v>
-      </c>
       <c r="N96">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="O96">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>4190</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="K97">
-        <v>0.01967592592592593</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="L97">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M97">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N97">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
       <c r="O97">
-        <v>0.51</v>
+        <v>0.25</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>847</v>
+        <v>777</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K98">
-        <v>0.01925025329280649</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="L98">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M98">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N98">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>968</v>
+        <v>874</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="K99">
-        <v>0.01880877742946709</v>
+        <v>0.01890243902439024</v>
       </c>
       <c r="L99">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="M99">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="N99">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="O99">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>939</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K100">
+        <v>0.01873975169829</v>
+      </c>
+      <c r="L100">
         <v>80</v>
       </c>
-      <c r="K100">
-        <v>0.01808887141171844</v>
-      </c>
-      <c r="L100">
-        <v>92</v>
-      </c>
       <c r="M100">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="N100">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="O100">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>4994</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K101">
-        <v>0.0162037037037037</v>
+        <v>0.01871552403467297</v>
       </c>
       <c r="L101">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="M101">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="N101">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="O101">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>850</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K102">
-        <v>0.01457399103139013</v>
+        <v>0.01779859484777518</v>
       </c>
       <c r="L102">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M102">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N102">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="O102">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>879</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K103">
-        <v>0.01366240634640811</v>
+        <v>0.01637426900584795</v>
       </c>
       <c r="L103">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M103">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="N103">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="O103">
-        <v>0.5600000000000001</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>2238</v>
+        <v>841</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="K104">
-        <v>0.01341410644742536</v>
+        <v>0.015625</v>
       </c>
       <c r="L104">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M104">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N104">
-        <v>0.31</v>
+        <v>0.65</v>
       </c>
       <c r="O104">
-        <v>0.6899999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>2280</v>
+        <v>945</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K105">
-        <v>0.01252408477842004</v>
+        <v>0.01363836339639243</v>
       </c>
       <c r="L105">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M105">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="N105">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
       <c r="O105">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>2050</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K106">
-        <v>0.006012024048096192</v>
+        <v>0.01334604385128694</v>
       </c>
       <c r="L106">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M106">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="N106">
-        <v>0.14</v>
+        <v>0.38</v>
       </c>
       <c r="O106">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>2976</v>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17">
+      <c r="J107" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K107">
+        <v>0.01116902457185406</v>
+      </c>
+      <c r="L107">
+        <v>15</v>
+      </c>
+      <c r="M107">
+        <v>35</v>
+      </c>
+      <c r="N107">
+        <v>0.43</v>
+      </c>
+      <c r="O107">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P107" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108">
+        <v>0.01078050884001725</v>
+      </c>
+      <c r="L108">
+        <v>25</v>
+      </c>
+      <c r="M108">
+        <v>85</v>
+      </c>
+      <c r="N108">
+        <v>0.29</v>
+      </c>
+      <c r="O108">
+        <v>0.71</v>
+      </c>
+      <c r="P108" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K109">
+        <v>0.006371562709590879</v>
+      </c>
+      <c r="L109">
+        <v>19</v>
+      </c>
+      <c r="M109">
+        <v>144</v>
+      </c>
+      <c r="N109">
+        <v>0.13</v>
+      </c>
+      <c r="O109">
+        <v>0.87</v>
+      </c>
+      <c r="P109" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>2963</v>
       </c>
     </row>
   </sheetData>
